--- a/verilog/VLSI_experiment/9w/subexpersssion optimization.xlsx
+++ b/verilog/VLSI_experiment/9w/subexpersssion optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yubeenjo/VSCode/verilog/VLSI_experiment/9w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992A44C-0149-DB49-A548-C0D8650ACB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1D4FF9-741A-9F47-83A1-E7122B036EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1660" windowWidth="28240" windowHeight="17440" xr2:uid="{838171DC-B6B1-D84D-8EC1-E9E694F88058}"/>
+    <workbookView xWindow="12420" yWindow="920" windowWidth="21180" windowHeight="18580" xr2:uid="{838171DC-B6B1-D84D-8EC1-E9E694F88058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>2*5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,34 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>여기까지는 맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘네가 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1 blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2 yello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3 green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4 red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct filter 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -170,15 +198,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -210,20 +229,164 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -234,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,37 +410,130 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,52 +850,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F131320-CD1E-6247-AB77-A1FDDBB0970A}">
-  <dimension ref="D10:P28"/>
+  <dimension ref="D9:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="159" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData>
+    <row r="9" spans="4:16" ht="18" thickBot="1"/>
     <row r="10" spans="4:16">
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="34">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34">
         <v>1</v>
       </c>
     </row>
@@ -647,40 +904,40 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="38">
         <v>-1</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="9">
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="36">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26">
+        <v>1</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="36">
         <v>1</v>
       </c>
     </row>
@@ -688,40 +945,40 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
+        <v>1</v>
+      </c>
+      <c r="M12" s="26">
+        <v>1</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="36">
         <v>1</v>
       </c>
     </row>
@@ -729,89 +986,98 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="38">
         <v>-1</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16">
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" ht="18" thickBot="1">
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16">
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <v>1</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
       <c r="G17" s="2">
@@ -845,11 +1111,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
-      <c r="E18" s="4">
+    <row r="18" spans="4:16">
+      <c r="E18" s="9">
         <v>-1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="10">
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -883,11 +1149,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+    <row r="19" spans="4:16">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -921,11 +1187,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
-      <c r="E20" s="4">
+    <row r="20" spans="4:16">
+      <c r="E20" s="9">
         <v>-1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -940,7 +1206,7 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="6">
         <v>1</v>
       </c>
       <c r="L20" s="1">
@@ -959,11 +1225,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:16">
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+    <row r="21" spans="4:16">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
         <v>1</v>
       </c>
       <c r="G21" s="2">
@@ -997,7 +1263,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:16">
+    <row r="22" spans="4:16">
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="24" spans="4:16">
       <c r="J24" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="4:16">
       <c r="J25" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="4:16">
       <c r="J26" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="4:16">
       <c r="J27" t="s">
         <v>3</v>
       </c>
@@ -1053,12 +1323,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:16">
+    <row r="28" spans="4:16">
       <c r="K28" t="s">
         <v>4</v>
       </c>
       <c r="N28">
         <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16">
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" ht="18" thickBot="1"/>
+    <row r="31" spans="4:16" ht="18" thickBot="1">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>1</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>1</v>
+      </c>
+      <c r="K31" s="43">
+        <v>1</v>
+      </c>
+      <c r="L31" s="44">
+        <v>0</v>
+      </c>
+      <c r="M31" s="44">
+        <v>0</v>
+      </c>
+      <c r="N31" s="45">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16">
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="31">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+      <c r="K32" s="42">
+        <v>1</v>
+      </c>
+      <c r="L32" s="42">
+        <v>0</v>
+      </c>
+      <c r="M32" s="42">
+        <v>0</v>
+      </c>
+      <c r="N32" s="42">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="18">
+        <v>0</v>
+      </c>
+      <c r="P32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16">
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="41">
+        <v>1</v>
+      </c>
+      <c r="L33" s="41">
+        <v>0</v>
+      </c>
+      <c r="M33" s="41">
+        <v>0</v>
+      </c>
+      <c r="N33" s="41">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0</v>
+      </c>
+      <c r="P33" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <v>1</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" ht="18" thickBot="1">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1</v>
+      </c>
+      <c r="G35" s="28">
+        <v>1</v>
+      </c>
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="33">
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="29">
+        <v>1</v>
+      </c>
+      <c r="M35" s="33">
+        <v>0</v>
+      </c>
+      <c r="N35" s="28">
+        <v>0</v>
+      </c>
+      <c r="O35" s="28">
+        <v>1</v>
+      </c>
+      <c r="P35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16">
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16">
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16">
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16">
+      <c r="M41" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/verilog/VLSI_experiment/9w/subexpersssion optimization.xlsx
+++ b/verilog/VLSI_experiment/9w/subexpersssion optimization.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yubeenjo/VSCode/verilog/VLSI_experiment/9w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1D4FF9-741A-9F47-83A1-E7122B036EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F9AA82-9F41-6A4E-8CF6-FCD25E0F538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="920" windowWidth="21180" windowHeight="18580" xr2:uid="{838171DC-B6B1-D84D-8EC1-E9E694F88058}"/>
+    <workbookView xWindow="15420" yWindow="780" windowWidth="24960" windowHeight="18580" xr2:uid="{838171DC-B6B1-D84D-8EC1-E9E694F88058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>2*5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,46 @@
   </si>
   <si>
     <t>direct filter 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 각 더하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +170,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -168,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -340,23 +388,47 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -371,7 +443,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -386,7 +458,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -397,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,9 +539,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,45 +551,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,23 +569,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,16 +934,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F131320-CD1E-6247-AB77-A1FDDBB0970A}">
-  <dimension ref="D9:P41"/>
+  <dimension ref="D9:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="142" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData>
-    <row r="9" spans="4:16" ht="18" thickBot="1"/>
-    <row r="10" spans="4:16">
+    <row r="9" spans="4:17" ht="18" thickBot="1"/>
+    <row r="10" spans="4:17">
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,7 +953,7 @@
       <c r="F10" s="15">
         <v>0</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="25">
         <v>1</v>
       </c>
       <c r="H10" s="16">
@@ -878,193 +962,219 @@
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="25">
         <v>1</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
       </c>
-      <c r="L10" s="34">
-        <v>1</v>
-      </c>
-      <c r="M10" s="37">
-        <v>1</v>
-      </c>
-      <c r="N10" s="37">
+      <c r="L10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="25">
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
         <v>1</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
       </c>
-      <c r="P10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16">
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(E10:P10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="26">
         <v>-1</v>
       </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="36">
-        <v>1</v>
-      </c>
-      <c r="M11" s="26">
-        <v>1</v>
-      </c>
-      <c r="N11" s="26">
-        <v>1</v>
-      </c>
-      <c r="O11" s="18">
-        <v>0</v>
-      </c>
-      <c r="P11" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q14" si="0">SUM(E11:P11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17">
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="26">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="17">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
-        <v>1</v>
-      </c>
-      <c r="M12" s="26">
-        <v>1</v>
-      </c>
-      <c r="N12" s="26">
-        <v>1</v>
-      </c>
-      <c r="O12" s="18">
-        <v>0</v>
-      </c>
-      <c r="P12" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17">
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="26">
         <v>-1</v>
       </c>
-      <c r="F13" s="26">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" ht="18" thickBot="1">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" ht="18" thickBot="1">
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="39">
-        <v>1</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0</v>
-      </c>
-      <c r="O14" s="27">
-        <v>1</v>
-      </c>
-      <c r="P14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16">
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="Q15">
+        <f>SUM(Q10:Q14)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17">
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:17">
       <c r="E17" s="5">
         <v>0</v>
       </c>
@@ -1111,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:17">
       <c r="E18" s="9">
         <v>-1</v>
       </c>
@@ -1149,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:16">
+    <row r="19" spans="4:17">
       <c r="E19" s="5">
         <v>0</v>
       </c>
@@ -1187,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:16">
+    <row r="20" spans="4:17">
       <c r="E20" s="9">
         <v>-1</v>
       </c>
@@ -1225,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16">
+    <row r="21" spans="4:17">
       <c r="E21" s="5">
         <v>0</v>
       </c>
@@ -1263,11 +1373,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16">
+    <row r="22" spans="4:17">
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="24" spans="4:16">
+    <row r="24" spans="4:17">
+      <c r="G24">
+        <v>2</v>
+      </c>
       <c r="J24" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1394,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:16">
+    <row r="25" spans="4:17">
+      <c r="G25">
+        <v>5</v>
+      </c>
       <c r="J25" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1411,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:16">
+    <row r="26" spans="4:17">
+      <c r="G26">
+        <v>4</v>
+      </c>
       <c r="J26" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:16">
+    <row r="27" spans="4:17">
       <c r="J27" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16">
+    <row r="28" spans="4:17">
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
       <c r="K28" t="s">
         <v>4</v>
       </c>
@@ -1331,13 +1453,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="4:16">
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" ht="18" thickBot="1"/>
-    <row r="31" spans="4:16" ht="18" thickBot="1">
+    <row r="30" spans="4:17" ht="18" thickBot="1">
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>11</v>
+      </c>
+      <c r="G30" s="20">
+        <v>10</v>
+      </c>
+      <c r="H30" s="20">
+        <v>9</v>
+      </c>
+      <c r="I30" s="20">
+        <v>8</v>
+      </c>
+      <c r="J30" s="20">
+        <v>7</v>
+      </c>
+      <c r="K30" s="20">
+        <v>6</v>
+      </c>
+      <c r="L30" s="20">
+        <v>5</v>
+      </c>
+      <c r="M30" s="20">
+        <v>4</v>
+      </c>
+      <c r="N30" s="20">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+      <c r="P30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17">
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1347,219 +1501,268 @@
       <c r="F31" s="15">
         <v>0</v>
       </c>
-      <c r="G31" s="24">
-        <v>1</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <v>1</v>
-      </c>
-      <c r="K31" s="43">
-        <v>1</v>
-      </c>
-      <c r="L31" s="44">
-        <v>0</v>
-      </c>
-      <c r="M31" s="44">
-        <v>0</v>
-      </c>
-      <c r="N31" s="45">
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37">
+        <v>1</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1</v>
+      </c>
+      <c r="L31" s="38">
+        <v>0</v>
+      </c>
+      <c r="M31" s="38">
+        <v>0</v>
+      </c>
+      <c r="N31" s="38">
         <v>-1</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
       </c>
-      <c r="P31" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16">
+      <c r="P31" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="30">
         <v>-1</v>
       </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="40">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31">
-        <v>1</v>
-      </c>
-      <c r="J32" s="18">
-        <v>0</v>
-      </c>
-      <c r="K32" s="42">
-        <v>1</v>
-      </c>
-      <c r="L32" s="42">
-        <v>0</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0</v>
-      </c>
-      <c r="N32" s="42">
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="28">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="31">
+        <v>1</v>
+      </c>
+      <c r="L32" s="28">
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <v>0</v>
+      </c>
+      <c r="N32" s="28">
         <v>-1</v>
       </c>
-      <c r="O32" s="18">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17">
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="26">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="41">
-        <v>1</v>
-      </c>
-      <c r="L33" s="41">
-        <v>0</v>
-      </c>
-      <c r="M33" s="41">
-        <v>0</v>
-      </c>
-      <c r="N33" s="41">
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="28">
+        <v>1</v>
+      </c>
+      <c r="L33" s="34">
+        <v>0</v>
+      </c>
+      <c r="M33" s="28">
+        <v>0</v>
+      </c>
+      <c r="N33" s="28">
         <v>-1</v>
       </c>
-      <c r="O33" s="18">
-        <v>0</v>
-      </c>
-      <c r="P33" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16">
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17">
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="28">
         <v>-1</v>
       </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="40">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
-        <v>1</v>
-      </c>
-      <c r="J34" s="18">
-        <v>0</v>
-      </c>
-      <c r="K34" s="32">
-        <v>1</v>
-      </c>
-      <c r="L34" s="19">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18">
-        <v>0</v>
-      </c>
-      <c r="O34" s="18">
-        <v>0</v>
-      </c>
-      <c r="P34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" ht="18" thickBot="1">
+      <c r="G34" s="28">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28">
+        <v>0</v>
+      </c>
+      <c r="I34" s="28">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="33">
+        <v>1</v>
+      </c>
+      <c r="L34" s="42">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" ht="18" thickBot="1">
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="20">
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <v>1</v>
-      </c>
-      <c r="G35" s="28">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29">
-        <v>0</v>
-      </c>
-      <c r="I35" s="33">
-        <v>0</v>
-      </c>
-      <c r="J35" s="28">
-        <v>1</v>
-      </c>
-      <c r="K35" s="21">
-        <v>0</v>
-      </c>
-      <c r="L35" s="29">
-        <v>1</v>
-      </c>
-      <c r="M35" s="33">
-        <v>0</v>
-      </c>
-      <c r="N35" s="28">
-        <v>0</v>
-      </c>
-      <c r="O35" s="28">
-        <v>1</v>
-      </c>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16">
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0</v>
+      </c>
+      <c r="I35" s="36">
+        <v>0</v>
+      </c>
+      <c r="J35" s="36">
+        <v>1</v>
+      </c>
+      <c r="K35" s="20">
+        <v>0</v>
+      </c>
+      <c r="L35" s="36">
+        <v>1</v>
+      </c>
+      <c r="M35" s="36">
+        <v>0</v>
+      </c>
+      <c r="N35" s="36">
+        <v>0</v>
+      </c>
+      <c r="O35" s="36">
+        <v>1</v>
+      </c>
+      <c r="P35" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17">
       <c r="M38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:16">
+    <row r="39" spans="4:17">
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
       <c r="M39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:16">
+    <row r="40" spans="4:17">
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
       <c r="M40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="4:16">
+    <row r="41" spans="4:17">
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
       <c r="M41" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17">
+      <c r="H43" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
